--- a/Smart Hospital Appointment & Queue Management System/Smart Hospital Appointment & Queue Management System.xlsx
+++ b/Smart Hospital Appointment & Queue Management System/Smart Hospital Appointment & Queue Management System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29780" windowHeight="13260"/>
+    <workbookView windowWidth="18360" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="68" spans="1:5">
+    <row r="9" ht="60" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
